--- a/GATEWAY/A1#111ITSVIL00000/I.T. Svil Srl/4Heasy ADT/v.1.0.0/accreditamento-checklist_V8.2.6.xlsx
+++ b/GATEWAY/A1#111ITSVIL00000/I.T. Svil Srl/4Heasy ADT/v.1.0.0/accreditamento-checklist_V8.2.6.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabat\Desktop\A1#111ITSVIL00000\I.T. Svil Srl\4Heasy ADT\v.1.0.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBCFAEEE-AF21-409C-BF10-6F0D0CBF07BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4123B7-869F-47D9-AE26-7E0572B45E69}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8364" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,12 @@
     <sheet name="Summary" sheetId="4" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$24</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="164">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -684,6 +687,51 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.70103.4.6.303de62cc2fb651db3ef78bd94842ad093f6293b7c77a989c8db069b1a684e86.ae4cc6dc19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_LDO_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT11_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation"al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT13_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 13" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT14_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 14" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT16_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 16" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_LDO_CT19_KO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 20" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento. </t>
+  </si>
+  <si>
+    <t>Tempo massimo della richiesta scaduto riprovare</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1240,6 +1288,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1261,9 +1313,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1346,6 +1395,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Istruzioni Compilazione"/>
+      <sheetName val="Prerequisiti"/>
+      <sheetName val="TestCases"/>
+      <sheetName val="LISTA VALORI"/>
+      <sheetName val="Summary"/>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2712,13 +2784,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W579"/>
+  <dimension ref="A1:W584"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2760,14 +2832,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45" t="s">
+      <c r="B2" s="46"/>
+      <c r="C2" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="46"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2788,14 +2860,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="D3" s="44"/>
+      <c r="D3" s="46"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2816,12 +2888,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="48"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="52" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2843,12 +2915,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="46"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2869,8 +2941,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3052,7 +3124,7 @@
       </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
-      <c r="S10" s="53" t="s">
+      <c r="S10" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T10" s="35" t="s">
@@ -3111,7 +3183,7 @@
       </c>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
-      <c r="S11" s="53" t="s">
+      <c r="S11" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T11" s="35" t="s">
@@ -3123,9 +3195,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" s="41" customFormat="1" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>34</v>
@@ -3134,23 +3206,17 @@
         <v>37</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="F12" s="34">
         <v>45839</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>127</v>
-      </c>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="39"/>
       <c r="J12" s="35" t="s">
         <v>49</v>
       </c>
@@ -3163,20 +3229,22 @@
         <v>49</v>
       </c>
       <c r="O12" s="35" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="P12" s="35" t="s">
         <v>49</v>
       </c>
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
-      <c r="S12" s="53" t="s">
+      <c r="S12" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T12" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="U12" s="36"/>
+      <c r="U12" s="36" t="s">
+        <v>49</v>
+      </c>
       <c r="V12" s="37"/>
       <c r="W12" s="35" t="s">
         <v>43</v>
@@ -3184,7 +3252,7 @@
     </row>
     <row r="13" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>34</v>
@@ -3193,22 +3261,22 @@
         <v>37</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="34">
         <v>45839</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>49</v>
@@ -3229,7 +3297,7 @@
       </c>
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
-      <c r="S13" s="53" t="s">
+      <c r="S13" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T13" s="35" t="s">
@@ -3243,7 +3311,7 @@
     </row>
     <row r="14" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>34</v>
@@ -3252,22 +3320,22 @@
         <v>37</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F14" s="34">
         <v>45839</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>49</v>
@@ -3288,7 +3356,7 @@
       </c>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="53" t="s">
+      <c r="S14" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T14" s="35" t="s">
@@ -3302,7 +3370,7 @@
     </row>
     <row r="15" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>34</v>
@@ -3311,22 +3379,22 @@
         <v>37</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15" s="34">
         <v>45839</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>49</v>
@@ -3340,14 +3408,14 @@
         <v>49</v>
       </c>
       <c r="O15" s="35" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>49</v>
       </c>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="53" t="s">
+      <c r="S15" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T15" s="35" t="s">
@@ -3361,7 +3429,7 @@
     </row>
     <row r="16" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="33">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>34</v>
@@ -3370,22 +3438,22 @@
         <v>37</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F16" s="34">
         <v>45839</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>49</v>
@@ -3399,14 +3467,14 @@
         <v>49</v>
       </c>
       <c r="O16" s="35" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>49</v>
       </c>
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
-      <c r="S16" s="53" t="s">
+      <c r="S16" s="42" t="s">
         <v>121</v>
       </c>
       <c r="T16" s="35" t="s">
@@ -3418,9 +3486,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" s="41" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="33">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>34</v>
@@ -3429,57 +3497,39 @@
         <v>37</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="F17" s="34">
-        <v>45839</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="I17" s="39" t="s">
-        <v>144</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="35"/>
+        <v>64</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="L17" s="35"/>
-      <c r="M17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="N17" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="P17" s="35" t="s">
-        <v>49</v>
-      </c>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
-      <c r="S17" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="T17" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
       <c r="U17" s="36"/>
       <c r="V17" s="37"/>
       <c r="W17" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33">
-        <v>450</v>
+        <v>70</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>34</v>
@@ -3488,47 +3538,57 @@
         <v>37</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="F18" s="34">
         <v>45839</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>49</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="M18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
+      <c r="S18" s="42" t="s">
+        <v>121</v>
+      </c>
       <c r="T18" s="35" t="s">
         <v>62</v>
       </c>
       <c r="U18" s="36"/>
       <c r="V18" s="37"/>
       <c r="W18" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" s="41" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="33">
-        <v>451</v>
+        <v>71</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>34</v>
@@ -3537,27 +3597,21 @@
         <v>37</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F19" s="34">
-        <v>45839</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>150</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="39"/>
       <c r="J19" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="35"/>
+        <v>64</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>72</v>
+      </c>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -3566,134 +3620,292 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="35" t="s">
-        <v>62</v>
-      </c>
+      <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="V19" s="37"/>
       <c r="W19" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" s="41" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="33">
+        <v>72</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="33">
+        <v>73</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="34">
+        <v>45839</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="O21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="T21" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="41" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="33">
+        <v>74</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="33">
+        <v>450</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="34">
+        <v>45839</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="35" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="9"/>
-    </row>
-    <row r="21" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="9"/>
-    </row>
-    <row r="22" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="9"/>
-    </row>
-    <row r="23" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="9"/>
-    </row>
-    <row r="24" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="9"/>
-    </row>
-    <row r="25" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="9"/>
+    <row r="24" spans="1:23" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="33">
+        <v>451</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="34">
+        <v>45839</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="41" customFormat="1" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="33">
+        <v>467</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="33"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F26" s="6"/>
@@ -6336,60 +6548,145 @@
       <c r="W157" s="9"/>
     </row>
     <row r="158" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W158" s="7"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="7"/>
+      <c r="K158" s="7"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="7"/>
+      <c r="N158" s="7"/>
+      <c r="O158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="7"/>
+      <c r="R158" s="7"/>
+      <c r="S158" s="7"/>
+      <c r="T158" s="7"/>
+      <c r="U158" s="8"/>
+      <c r="V158" s="2"/>
+      <c r="W158" s="9"/>
     </row>
     <row r="159" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W159" s="7"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="7"/>
+      <c r="K159" s="7"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="7"/>
+      <c r="N159" s="7"/>
+      <c r="O159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="7"/>
+      <c r="R159" s="7"/>
+      <c r="S159" s="7"/>
+      <c r="T159" s="7"/>
+      <c r="U159" s="8"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="9"/>
     </row>
     <row r="160" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W160" s="7"/>
-    </row>
-    <row r="161" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W161" s="7"/>
-    </row>
-    <row r="162" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="W162" s="7"/>
-    </row>
-    <row r="163" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="7"/>
+      <c r="K160" s="7"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="7"/>
+      <c r="N160" s="7"/>
+      <c r="O160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="7"/>
+      <c r="R160" s="7"/>
+      <c r="S160" s="7"/>
+      <c r="T160" s="7"/>
+      <c r="U160" s="8"/>
+      <c r="V160" s="2"/>
+      <c r="W160" s="9"/>
+    </row>
+    <row r="161" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="7"/>
+      <c r="K161" s="7"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="7"/>
+      <c r="N161" s="7"/>
+      <c r="O161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="7"/>
+      <c r="R161" s="7"/>
+      <c r="S161" s="7"/>
+      <c r="T161" s="7"/>
+      <c r="U161" s="8"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="9"/>
+    </row>
+    <row r="162" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="7"/>
+      <c r="K162" s="7"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="7"/>
+      <c r="N162" s="7"/>
+      <c r="O162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="7"/>
+      <c r="R162" s="7"/>
+      <c r="S162" s="7"/>
+      <c r="T162" s="7"/>
+      <c r="U162" s="8"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="9"/>
+    </row>
+    <row r="163" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W163" s="7"/>
     </row>
-    <row r="164" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W164" s="7"/>
     </row>
-    <row r="165" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W165" s="7"/>
     </row>
-    <row r="166" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W166" s="7"/>
     </row>
-    <row r="167" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W167" s="7"/>
     </row>
-    <row r="168" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W168" s="7"/>
     </row>
-    <row r="169" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W169" s="7"/>
     </row>
-    <row r="170" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W170" s="7"/>
     </row>
-    <row r="171" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W171" s="7"/>
     </row>
-    <row r="172" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W172" s="7"/>
     </row>
-    <row r="173" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W173" s="7"/>
     </row>
-    <row r="174" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W174" s="7"/>
     </row>
-    <row r="175" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W175" s="7"/>
     </row>
-    <row r="176" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W176" s="7"/>
     </row>
     <row r="177" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -7586,13 +7883,28 @@
     <row r="574" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="W574" s="7"/>
     </row>
-    <row r="575" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="576" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="577" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="578" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="579" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="575" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W575" s="7"/>
+    </row>
+    <row r="576" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W576" s="7"/>
+    </row>
+    <row r="577" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W577" s="7"/>
+    </row>
+    <row r="578" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W578" s="7"/>
+    </row>
+    <row r="579" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="W579" s="7"/>
+    </row>
+    <row r="580" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="581" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="582" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="583" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="584" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A9:W19" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A9:W24" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -7608,24 +7920,36 @@
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{F5F4AC7B-142E-4F14-AD0B-95E75DB6B433}">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P10:R19 M10:N19 J10:J19</xm:sqref>
+          <xm:sqref>P10:R11 P13:R16 P23:R24 M18:N18 P18:R18 J10:J25 P21:R21 M21:N21 M23:N24 M10:N16 P12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{70793024-27E9-4E6A-BACD-083AB683BC38}">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T10:T19</xm:sqref>
+          <xm:sqref>T10:T16 T18 T21 T23:T24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DE61C5E-9DA3-4CE3-A1FF-8FBE651EA6B5}">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K19</xm:sqref>
+          <xm:sqref>K10:K25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{2CEC7D3D-8A75-4B3C-8AB7-506E28D1D8B9}">
+          <x14:formula1>
+            <xm:f>'C:\Users\sabat\Downloads\[accreditamento-checklist_V8.2.6_1.xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>T25 T17 T19:T20 T22</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" xr:uid="{53EA2A99-720D-4420-9AA5-13DCCBAE6233}">
+          <x14:formula1>
+            <xm:f>'C:\Users\sabat\Downloads\[accreditamento-checklist_V8.2.6_1.xlsx]Sheet1'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>Q12:R12 M25:N25 P17:R17 M17:N17 M19:N20 P19:R20 P22:R22 M22:N22 P25:R25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9876,27 +10200,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -10154,32 +10457,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10198,6 +10497,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
